--- a/dataset/score/chiravibhava.xlsx
+++ b/dataset/score/chiravibhava.xlsx
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -721,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.3952380952380953</v>
+        <v>0.1642857142857143</v>
       </c>
       <c r="G10" t="n">
         <v>-0.25</v>
@@ -914,7 +914,7 @@
         <v>-0.25</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9761904761904762</v>
+        <v>-0.1785714285714286</v>
       </c>
       <c r="J10" t="n">
         <v>0.5</v>
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.5880952380952381</v>
+        <v>0.5547619047619048</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1010,7 +1010,7 @@
         <v>0.9880952380952381</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4523809523809524</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J12" t="n">
         <v>0.25</v>
@@ -1097,7 +1097,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1145,7 +1145,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9952380952380953</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9952380952380953</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1298,10 +1298,10 @@
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1586,10 +1586,10 @@
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.8476190476190476</v>
+        <v>0.8428571428571429</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1634,7 +1634,7 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J25" t="n">
         <v>0.25</v>
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.8976190476190476</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J29" t="n">
         <v>0.5</v>
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8976190476190476</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J32" t="n">
         <v>0.75</v>
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2021,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K33" t="n">
         <v>0.75</v>
@@ -2057,7 +2057,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J34" t="n">
         <v>0.75</v>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2258,7 +2258,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2297,7 +2297,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J39" t="n">
         <v>0.75</v>
@@ -2393,7 +2393,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.9952380952380953</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2594,7 +2594,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.9452380952380952</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2642,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J46" t="n">
         <v>0.75</v>
@@ -2825,7 +2825,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2834,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -2969,7 +2969,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.8976190476190476</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2978,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J53" t="n">
         <v>0.5</v>
@@ -3065,7 +3065,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3074,7 +3074,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3218,7 +3218,7 @@
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3305,7 +3305,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3314,10 +3314,10 @@
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J60" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
         <v>1</v>
@@ -3353,7 +3353,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3365,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
         <v>1</v>
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3410,10 +3410,10 @@
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J62" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
         <v>1</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.7880952380952382</v>
+        <v>0.7690476190476191</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>0.9880952380952381</v>
       </c>
       <c r="I69" t="n">
-        <v>0.7023809523809523</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="J69" t="n">
         <v>0.5</v>
@@ -3833,7 +3833,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3842,7 +3842,7 @@
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.8976190476190476</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3890,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J72" t="n">
         <v>0.5</v>
@@ -3929,7 +3929,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3938,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4073,7 +4073,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4082,7 +4082,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J76" t="n">
         <v>0.75</v>
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -4217,7 +4217,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4226,10 +4226,10 @@
         <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.9976190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -4313,7 +4313,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.9452380952380952</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4322,10 +4322,10 @@
         <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J81" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K81" t="n">
         <v>1</v>
@@ -4457,7 +4457,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4466,10 +4466,10 @@
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J84" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K84" t="n">
         <v>1</v>
@@ -4649,7 +4649,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.9476190476190476</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4658,10 +4658,10 @@
         <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="J88" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K88" t="n">
         <v>1</v>
@@ -4697,7 +4697,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4709,7 +4709,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>1</v>
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4853,7 +4853,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K92" t="n">
         <v>1</v>
@@ -4889,7 +4889,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4901,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K93" t="n">
         <v>1</v>
@@ -4985,7 +4985,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4997,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K95" t="n">
         <v>1</v>
@@ -5033,7 +5033,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.9452380952380952</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5042,7 +5042,7 @@
         <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9761904761904762</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J96" t="n">
         <v>0.75</v>

--- a/dataset/score/chiravibhava.xlsx
+++ b/dataset/score/chiravibhava.xlsx
@@ -466,12 +466,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>n_aksharalu_score</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>n_paadalu_score</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>n_aksharalu_score</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -905,19 +905,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.1642857142857143</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1785714285714286</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>1</v>
@@ -1004,10 +1004,10 @@
         <v>0.5547619047619048</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9880952380952381</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0.2857142857142857</v>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.9857142857142858</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J18" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1589,7 +1589,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J24" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>1</v>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.8428571428571429</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1637,7 +1637,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J25" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1973,7 +1973,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J32" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>0.75</v>
@@ -2153,7 +2153,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2165,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
@@ -2489,7 +2489,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2501,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K43" t="n">
         <v>1</v>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.9857142857142858</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2597,7 +2597,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2693,7 +2693,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2885,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
         <v>1</v>
@@ -2969,7 +2969,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2981,7 +2981,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K53" t="n">
         <v>1</v>
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3173,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
         <v>1</v>
@@ -3545,7 +3545,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3557,7 +3557,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K65" t="n">
         <v>1</v>
@@ -3641,7 +3641,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3653,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
@@ -3689,7 +3689,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3701,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K68" t="n">
         <v>1</v>
@@ -3740,10 +3740,10 @@
         <v>0.7690476190476191</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0.9880952380952381</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9880952380952381</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0.6071428571428571</v>
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3893,7 +3893,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J72" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
         <v>1</v>
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3989,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
         <v>1</v>
@@ -4025,7 +4025,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4037,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
         <v>1</v>
@@ -4073,7 +4073,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4085,7 +4085,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J76" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
         <v>1</v>
@@ -4217,7 +4217,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.9428571428571428</v>
+        <v>0.9928571428571429</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4229,7 +4229,7 @@
         <v>0.9642857142857143</v>
       </c>
       <c r="J79" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
         <v>1</v>
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4373,7 +4373,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
         <v>1</v>
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4613,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K87" t="n">
         <v>1</v>
@@ -4745,7 +4745,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
         <v>1</v>
@@ -4793,7 +4793,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4805,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K91" t="n">
         <v>1</v>
@@ -4889,7 +4889,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4901,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="K93" t="n">
         <v>1</v>
@@ -4937,7 +4937,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4949,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K94" t="n">
         <v>1</v>
@@ -4985,7 +4985,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4997,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
         <v>1</v>
@@ -5033,7 +5033,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.8857142857142858</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -5045,7 +5045,7 @@
         <v>0.9285714285714286</v>
       </c>
       <c r="J96" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="K96" t="n">
         <v>1</v>
@@ -5081,7 +5081,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="K97" t="n">
         <v>1</v>
